--- a/Encoding/Encoding.xlsx
+++ b/Encoding/Encoding.xlsx
@@ -5,34 +5,42 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Jobb/Experiments/Faces_task/Gallerymemory/GalleryGame_OneShotLearning_fMRI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lunduniversityo365-my.sharepoint.com/personal/em5456ol-s_lu_se/Documents/Jobb/Experiments/FacesNamesProffessions/Encoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC10489C71584F105BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2648042D-DBCF-4578-8230-2947E716C19C}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="11_F25DC773A252ABDACC10489C71584F105BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F5D8D63-3702-4EF4-9814-043AB49664D0}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="5205" windowWidth="14985" windowHeight="5685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="154">
   <si>
     <t>Images_Faces/O31.jpg</t>
   </si>
   <si>
-    <t>Mohamed</t>
-  </si>
-  <si>
     <t>M.</t>
   </si>
   <si>
@@ -126,9 +134,6 @@
     <t>Images_Faces/SH36.png</t>
   </si>
   <si>
-    <t>VVS-monterare</t>
-  </si>
-  <si>
     <t>V.</t>
   </si>
   <si>
@@ -174,9 +179,6 @@
     <t>Images_Faces/SH39.png</t>
   </si>
   <si>
-    <t>Marknadschef</t>
-  </si>
-  <si>
     <t>Images_Faces/O40.jpg</t>
   </si>
   <si>
@@ -252,9 +254,6 @@
     <t>Images_Faces/SH44.png</t>
   </si>
   <si>
-    <t>Målare</t>
-  </si>
-  <si>
     <t>Images_Faces/O45.jpg</t>
   </si>
   <si>
@@ -267,9 +266,6 @@
     <t>Images_Faces/SH45.png</t>
   </si>
   <si>
-    <t>Sotare</t>
-  </si>
-  <si>
     <t>Images_Faces/O46.jpg</t>
   </si>
   <si>
@@ -279,9 +275,6 @@
     <t>Images_Faces/SH46.png</t>
   </si>
   <si>
-    <t>Svetsare</t>
-  </si>
-  <si>
     <t>Images_Faces/O47.jpg</t>
   </si>
   <si>
@@ -339,9 +332,6 @@
     <t>Images_Faces/SH51.png</t>
   </si>
   <si>
-    <t>Naprapat</t>
-  </si>
-  <si>
     <t>Images_Faces/O52.jpg</t>
   </si>
   <si>
@@ -363,9 +353,6 @@
     <t>Images_Faces/SH53.png</t>
   </si>
   <si>
-    <t>VD</t>
-  </si>
-  <si>
     <t>Images_Faces/O54.jpg</t>
   </si>
   <si>
@@ -390,9 +377,6 @@
     <t>Images_Faces/SH55.png</t>
   </si>
   <si>
-    <t>Pastor</t>
-  </si>
-  <si>
     <t>Images_Faces/O56.jpg</t>
   </si>
   <si>
@@ -429,9 +413,6 @@
     <t>Images_Faces/SH58.png</t>
   </si>
   <si>
-    <t>Botaniker</t>
-  </si>
-  <si>
     <t>Images_Faces/O59.jpg</t>
   </si>
   <si>
@@ -484,6 +465,39 @@
   </si>
   <si>
     <t>encoding_name</t>
+  </si>
+  <si>
+    <t>VVS-montör</t>
+  </si>
+  <si>
+    <t>Rektor</t>
+  </si>
+  <si>
+    <t>Undersköterska</t>
+  </si>
+  <si>
+    <t>Lastbilschaufför</t>
+  </si>
+  <si>
+    <t>Inköpare</t>
+  </si>
+  <si>
+    <t>Nätverkstekniker</t>
+  </si>
+  <si>
+    <t>Försäkringsrådgivare</t>
+  </si>
+  <si>
+    <t>Apotekare</t>
+  </si>
+  <si>
+    <t>Vetrinär</t>
+  </si>
+  <si>
+    <t>Filip</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -814,1605 +828,1608 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>4</v>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
+      <c r="F4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>4</v>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>26</v>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>26</v>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>53</v>
+      <c r="F13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>7</v>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>18</v>
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>18</v>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>69</v>
+      <c r="F17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>69</v>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>58</v>
+      <c r="F19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>58</v>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>58</v>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>41</v>
+      <c r="F22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>41</v>
+      <c r="F23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E24" s="1">
         <v>0</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>41</v>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>41</v>
+      <c r="F25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>119</v>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>52</v>
+      <c r="F27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>52</v>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1">
         <v>0</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>52</v>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1">
         <v>0</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>52</v>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B31" s="1">
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1">
         <v>0</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>52</v>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1">
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="1">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1">
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1">
         <v>0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1">
         <v>0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D50" s="1">
         <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B53" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1">
         <v>0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B55" s="1">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D55" s="1">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D56" s="1">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B57" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B58" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1">
         <v>0</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B60" s="1">
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1">
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>